--- a/Analyzed/try6/data_2016.xlsx
+++ b/Analyzed/try6/data_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>64.89708971217001</v>
       </c>
       <c r="N2">
-        <v>137.172</v>
+        <v>314.0480000000001</v>
       </c>
       <c r="O2">
-        <v>1069.16</v>
+        <v>-130.84</v>
       </c>
       <c r="P2">
-        <v>554.2630631999999</v>
+        <v>451.0682270382574</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>7</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -583,16 +588,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>62.68488993116495</v>
       </c>
       <c r="N3">
-        <v>142.688</v>
+        <v>390.488</v>
       </c>
       <c r="O3">
-        <v>1029.1</v>
+        <v>-120.9</v>
       </c>
       <c r="P3">
-        <v>522.3497976</v>
+        <v>414.143902960662</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -665,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -683,7 +691,10 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>61.66888375931681</v>
       </c>
       <c r="N4">
-        <v>118.832</v>
+        <v>448.672</v>
       </c>
       <c r="O4">
-        <v>1157.94</v>
+        <v>-142.06</v>
       </c>
       <c r="P4">
-        <v>425.0459664</v>
+        <v>317.0180224175157</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,28 +764,31 @@
         <v>7</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>70.38379108783776</v>
       </c>
       <c r="N5">
-        <v>80.36000000000001</v>
+        <v>318.08</v>
       </c>
       <c r="O5">
-        <v>1194</v>
+        <v>-156</v>
       </c>
       <c r="P5">
-        <v>512.4940632</v>
+        <v>398.6344268651428</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,28 +858,31 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z5">
         <v>2</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>75.85174063347435</v>
       </c>
       <c r="N6">
-        <v>73.69600000000003</v>
+        <v>280.9520000000001</v>
       </c>
       <c r="O6">
-        <v>1047.22</v>
+        <v>-152.78</v>
       </c>
       <c r="P6">
-        <v>528.5467512</v>
+        <v>426.9660441785228</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -938,25 +955,28 @@
         <v>2</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>65.26930603630883</v>
       </c>
       <c r="N7">
-        <v>132.608</v>
+        <v>400.232</v>
       </c>
       <c r="O7">
-        <v>1059.11</v>
+        <v>-140.89</v>
       </c>
       <c r="P7">
-        <v>493.4932128</v>
+        <v>376.3922320598109</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -1044,10 +1064,13 @@
         <v>2</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>76.5292103336993</v>
       </c>
       <c r="N8">
-        <v>-55.04800000000002</v>
+        <v>251.776</v>
       </c>
       <c r="O8">
-        <v>1094.98</v>
+        <v>-205.02</v>
       </c>
       <c r="P8">
-        <v>541.9136304</v>
+        <v>442.5897038248895</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,28 +1140,31 @@
         <v>5</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>5</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>80.76749492080397</v>
       </c>
       <c r="N9">
-        <v>55.3</v>
+        <v>226.128</v>
       </c>
       <c r="O9">
-        <v>986.4</v>
+        <v>-163.6</v>
       </c>
       <c r="P9">
-        <v>527.4164231999999</v>
+        <v>408.2078781727211</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,16 +1234,16 @@
         <v>7</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1226,10 +1252,13 @@
         <v>3</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>70.75541679447987</v>
       </c>
       <c r="N10">
-        <v>33.43200000000003</v>
+        <v>347.9280000000001</v>
       </c>
       <c r="O10">
-        <v>1111.36</v>
+        <v>-188.64</v>
       </c>
       <c r="P10">
-        <v>495.9880776</v>
+        <v>370.6026379073062</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,28 +1328,31 @@
         <v>4</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>5</v>
       </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>4</v>
       </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
       <c r="AA10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1366,13 +1398,13 @@
         <v>72.33037674403032</v>
       </c>
       <c r="N11">
-        <v>105.868</v>
+        <v>257.04</v>
       </c>
       <c r="O11">
-        <v>1161.36</v>
+        <v>-188.64</v>
       </c>
       <c r="P11">
-        <v>513.4740336000001</v>
+        <v>365.9066650839889</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,27 +1422,30 @@
         <v>6</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0</v>
       </c>
     </row>
